--- a/denormalized_designs_fff.xlsx
+++ b/denormalized_designs_fff.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -530,7 +530,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>8</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>8</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
         <v>8</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
         <v>8</v>
@@ -698,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
         <v>8</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
         <v>15</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
         <v>15</v>
@@ -782,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
         <v>15</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
         <v>15</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
         <v>15</v>
@@ -824,7 +824,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
         <v>15</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
         <v>8</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
         <v>8</v>
@@ -1034,7 +1034,7 @@
         <v>24</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
         <v>8</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C44" t="n">
         <v>8</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
         <v>8</v>
@@ -1076,7 +1076,7 @@
         <v>24</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C46" t="n">
         <v>8</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
         <v>15</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>15</v>
@@ -1160,7 +1160,7 @@
         <v>24</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
         <v>15</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C53" t="n">
         <v>15</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
         <v>15</v>
@@ -1202,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
         <v>15</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>24</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>24</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
         <v>8</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
         <v>8</v>
@@ -1412,7 +1412,7 @@
         <v>24</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
         <v>8</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
         <v>8</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C72" t="n">
         <v>8</v>
@@ -1454,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C73" t="n">
         <v>8</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1507,10 +1507,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
         <v>15</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
         <v>15</v>
@@ -1538,7 +1538,7 @@
         <v>24</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
         <v>15</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C80" t="n">
         <v>15</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C81" t="n">
         <v>15</v>
@@ -1580,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
         <v>15</v>
